--- a/项目任务分配和进度.xlsx
+++ b/项目任务分配和进度.xlsx
@@ -4,13 +4,15 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="30720" windowHeight="13380"/>
+    <workbookView windowWidth="25068" windowHeight="13380" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="项目概览" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="每日进度" sheetId="2" r:id="rId2"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">项目概览!$E$1:$F$1</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -29,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="15">
   <si>
     <t>项目名称</t>
   </si>
@@ -63,6 +65,18 @@
   <si>
     <t>提交订单</t>
   </si>
+  <si>
+    <t>姓名</t>
+  </si>
+  <si>
+    <t>完成</t>
+  </si>
+  <si>
+    <t>要求</t>
+  </si>
+  <si>
+    <t>完成一次拉取和推送，必须包含自己负责的类</t>
+  </si>
 </sst>
 </file>
 
@@ -74,10 +88,40 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="20">
+  <fonts count="24">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color rgb="FF000000"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -227,7 +271,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="33">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -236,6 +280,18 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -278,12 +334,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -421,12 +471,162 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="19">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="4"/>
+      </left>
+      <right style="thin">
+        <color theme="4" tint="0.6"/>
+      </right>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="thin">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="4" tint="0.6"/>
+      </left>
+      <right style="thin">
+        <color theme="4" tint="0.6"/>
+      </right>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="thin">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="4"/>
+      </left>
+      <right style="thin">
+        <color theme="4" tint="0.6"/>
+      </right>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="thin">
+        <color theme="4" tint="0.6"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="4" tint="0.6"/>
+      </left>
+      <right style="thin">
+        <color theme="4" tint="0.6"/>
+      </right>
+      <top style="thin">
+        <color theme="4" tint="0.6"/>
+      </top>
+      <bottom style="thin">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="4"/>
+      </left>
+      <right style="thin">
+        <color theme="4" tint="0.6"/>
+      </right>
+      <top style="thin">
+        <color theme="4" tint="0.6"/>
+      </top>
+      <bottom style="thin">
+        <color theme="4" tint="0.6"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="4"/>
+      </left>
+      <right style="thin">
+        <color theme="4" tint="0.6"/>
+      </right>
+      <top style="thin">
+        <color theme="4" tint="0.6"/>
+      </top>
+      <bottom style="thin">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="4" tint="0.6"/>
+      </left>
+      <right style="thin">
+        <color theme="4"/>
+      </right>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="thin">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="4" tint="0.6"/>
+      </left>
+      <right style="thin">
+        <color theme="4"/>
+      </right>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="thin">
+        <color theme="4" tint="0.6"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="4" tint="0.6"/>
+      </left>
+      <right style="thin">
+        <color theme="4"/>
+      </right>
+      <top style="thin">
+        <color theme="4" tint="0.6"/>
+      </top>
+      <bottom style="thin">
+        <color theme="4" tint="0.6"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="4" tint="0.6"/>
+      </left>
+      <right style="thin">
+        <color theme="4"/>
+      </right>
+      <top style="thin">
+        <color theme="4" tint="0.6"/>
+      </top>
+      <bottom style="thin">
+        <color theme="4"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -547,138 +747,183 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="11">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="4">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="5">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="4">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="6">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="7">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="8">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="8" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="10" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="11" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="12" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="13" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="14" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="15" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="16" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="17" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="18" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="20" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="21" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="23" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="24" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="25" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="26" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="27" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="28" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="29" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="30" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="31" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="32" borderId="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="12">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="12">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="13">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="14">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="15">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="14">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="16">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="17">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="18">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="8" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="9" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="10" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="11" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="12" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="13" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="14" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="15" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="16" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="17" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="18" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="19" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="20" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="21" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="22" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="23" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="24" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="25" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="26" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="27" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="28" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="29" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="30" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="31" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="32" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="33" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="58" fontId="1" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -733,7 +978,434 @@
     <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
     <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <dxfs count="17">
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="4" tint="0.9"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="4" tint="0.9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="1"/>
+        <i val="0"/>
+        <u val="none"/>
+        <sz val="11"/>
+        <color rgb="FF08090C"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="4" tint="0.8"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="1"/>
+        <i val="0"/>
+        <u val="none"/>
+        <sz val="11"/>
+        <color rgb="FF08090C"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="4" tint="0.8"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="1"/>
+        <i val="0"/>
+        <u val="none"/>
+        <sz val="11"/>
+        <color rgb="FFFFFFFF"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="1"/>
+        <i val="0"/>
+        <u val="none"/>
+        <sz val="11"/>
+        <color rgb="FFFFFFFF"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <u val="none"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFFFF"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFFFF"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right style="thin">
+          <color theme="4"/>
+        </right>
+        <top style="thin">
+          <color theme="4"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="1"/>
+        <i val="0"/>
+        <u val="none"/>
+        <sz val="11"/>
+        <color theme="4"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFFFF"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color theme="4"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color theme="4"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color theme="4" tint="0.6"/>
+        </left>
+        <right style="thin">
+          <color theme="4" tint="0.6"/>
+        </right>
+        <top style="thin">
+          <color theme="4"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4"/>
+        </bottom>
+        <vertical/>
+        <horizontal style="thin">
+          <color theme="4" tint="0.6"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="4" tint="0.9"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color theme="4"/>
+        </left>
+        <right style="thin">
+          <color theme="4"/>
+        </right>
+        <top style="thin">
+          <color theme="4"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4"/>
+        </bottom>
+        <vertical style="thin">
+          <color theme="4" tint="0.6"/>
+        </vertical>
+        <horizontal style="thin">
+          <color theme="4" tint="0.6"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="4" tint="0.9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="1"/>
+        <i val="0"/>
+        <u val="none"/>
+        <sz val="11"/>
+        <color rgb="FF08090C"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="4" tint="0.8"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color theme="4" tint="0.6"/>
+        </left>
+        <right style="thin">
+          <color theme="4"/>
+        </right>
+        <top style="thin">
+          <color theme="4"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4"/>
+        </bottom>
+        <vertical/>
+        <horizontal style="thin">
+          <color theme="4" tint="0.6"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="1"/>
+        <i val="0"/>
+        <u val="none"/>
+        <sz val="11"/>
+        <color rgb="FF08090C"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="4" tint="0.8"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color theme="4"/>
+        </left>
+        <right style="thin">
+          <color theme="4" tint="0.6"/>
+        </right>
+        <top style="thin">
+          <color theme="4"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4"/>
+        </bottom>
+        <vertical/>
+        <horizontal style="thin">
+          <color theme="4" tint="0.6"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="1"/>
+        <i val="0"/>
+        <u val="none"/>
+        <sz val="11"/>
+        <color theme="4"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFFFF"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color theme="4"/>
+        </left>
+        <right style="thin">
+          <color theme="4"/>
+        </right>
+        <top style="thin">
+          <color theme="4"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="1"/>
+        <i val="0"/>
+        <u val="none"/>
+        <sz val="11"/>
+        <color rgb="FFFFFFFF"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color theme="4"/>
+        </left>
+        <right style="thin">
+          <color theme="4"/>
+        </right>
+        <top style="thin">
+          <color theme="4"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4"/>
+        </bottom>
+        <vertical style="thin">
+          <color theme="4" tint="0.6"/>
+        </vertical>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <u val="none"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFFFF"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color theme="4"/>
+        </left>
+        <right style="thin">
+          <color theme="4"/>
+        </right>
+        <top style="thin">
+          <color theme="4"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4"/>
+        </bottom>
+        <vertical style="thin">
+          <color theme="4" tint="0.6"/>
+        </vertical>
+        <horizontal style="thin">
+          <color theme="4" tint="0.6"/>
+        </horizontal>
+      </border>
+    </dxf>
+  </dxfs>
+  <tableStyles count="2" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
+    <tableStyle name="中色系标题行镶边行表格样式_6e22f3" count="7" xr9:uid="{6473F07D-A708-4322-8415-07CC2C7E8D4C}">
+      <tableStyleElement type="wholeTable" dxfId="6"/>
+      <tableStyleElement type="headerRow" dxfId="5"/>
+      <tableStyleElement type="totalRow" dxfId="4"/>
+      <tableStyleElement type="firstColumn" dxfId="3"/>
+      <tableStyleElement type="lastColumn" dxfId="2"/>
+      <tableStyleElement type="secondRowStripe" dxfId="1"/>
+      <tableStyleElement type="firstColumnStripe" dxfId="0"/>
+    </tableStyle>
+    <tableStyle name="中色系标题行表格样式_1201b3" count="10" xr9:uid="{A15EA28B-0B4A-4566-8EB1-FBFE342FF0B8}">
+      <tableStyleElement type="wholeTable" dxfId="16"/>
+      <tableStyleElement type="headerRow" dxfId="15"/>
+      <tableStyleElement type="totalRow" dxfId="14"/>
+      <tableStyleElement type="firstColumn" dxfId="13"/>
+      <tableStyleElement type="lastColumn" dxfId="12"/>
+      <tableStyleElement type="secondRowStripe" dxfId="11"/>
+      <tableStyleElement type="firstColumnStripe" dxfId="10"/>
+      <tableStyleElement type="secondColumnStripe" dxfId="9"/>
+      <tableStyleElement type="firstTotalCell" dxfId="8"/>
+      <tableStyleElement type="lastTotalCell" dxfId="7"/>
+    </tableStyle>
+  </tableStyles>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -994,8 +1666,8 @@
   <sheetPr/>
   <dimension ref="A1:B7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="6" outlineLevelCol="1"/>
@@ -1004,59 +1676,59 @@
     <col min="2" max="2" width="26.3333333333333" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
-      <c r="A1" t="s">
+    <row r="1" ht="50" customHeight="1" spans="1:2">
+      <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="8" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
-      <c r="A2" t="s">
+    <row r="2" ht="50" customHeight="1" spans="1:2">
+      <c r="A2" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="11" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
-      <c r="A3" t="s">
+    <row r="3" ht="50" customHeight="1" spans="1:2">
+      <c r="A3" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="13" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
-      <c r="A4" t="s">
+    <row r="4" ht="50" customHeight="1" spans="1:2">
+      <c r="A4" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="13" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
-      <c r="A5" t="s">
+    <row r="5" ht="50" customHeight="1" spans="1:2">
+      <c r="A5" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="13" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:2">
-      <c r="A6" t="s">
+    <row r="6" ht="50" customHeight="1" spans="1:2">
+      <c r="A6" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" s="13" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:2">
-      <c r="A7" t="s">
+    <row r="7" ht="50" customHeight="1" spans="1:2">
+      <c r="A7" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" s="15" t="s">
         <v>9</v>
       </c>
     </row>
@@ -1070,31 +1742,122 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1"/>
+  <dimension ref="A1:L5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
-  <sheetData/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="4"/>
+  <cols>
+    <col min="2" max="11" width="10.4444444444444"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="50" customHeight="1" spans="1:12">
+      <c r="A1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1" s="2">
+        <v>46008</v>
+      </c>
+      <c r="C1" s="2">
+        <v>46009</v>
+      </c>
+      <c r="D1" s="2">
+        <v>46010</v>
+      </c>
+      <c r="E1" s="2">
+        <v>46011</v>
+      </c>
+      <c r="F1" s="2">
+        <v>46012</v>
+      </c>
+      <c r="G1" s="2">
+        <v>46013</v>
+      </c>
+      <c r="H1" s="2">
+        <v>46014</v>
+      </c>
+      <c r="I1" s="2">
+        <v>46015</v>
+      </c>
+      <c r="J1" s="2">
+        <v>46016</v>
+      </c>
+      <c r="K1" s="2">
+        <v>46017</v>
+      </c>
+      <c r="L1" s="8"/>
+    </row>
+    <row r="2" ht="50" customHeight="1" spans="1:12">
+      <c r="A2" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="4"/>
+      <c r="C2" s="4"/>
+      <c r="D2" s="4"/>
+      <c r="E2" s="4"/>
+      <c r="F2" s="4"/>
+      <c r="G2" s="4"/>
+      <c r="H2" s="4"/>
+      <c r="I2" s="4"/>
+      <c r="J2" s="4"/>
+      <c r="K2" s="4"/>
+      <c r="L2" s="4"/>
+    </row>
+    <row r="3" ht="50" customHeight="1" spans="1:12">
+      <c r="A3" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" s="4"/>
+      <c r="D3" s="4"/>
+      <c r="E3" s="4"/>
+      <c r="F3" s="4"/>
+      <c r="G3" s="4"/>
+      <c r="H3" s="4"/>
+      <c r="I3" s="4"/>
+      <c r="J3" s="4"/>
+      <c r="K3" s="4"/>
+      <c r="L3" s="4"/>
+    </row>
+    <row r="4" ht="50" customHeight="1" spans="1:12">
+      <c r="A4" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" s="4"/>
+      <c r="C4" s="4"/>
+      <c r="D4" s="4"/>
+      <c r="E4" s="4"/>
+      <c r="F4" s="4"/>
+      <c r="G4" s="4"/>
+      <c r="H4" s="4"/>
+      <c r="I4" s="4"/>
+      <c r="J4" s="4"/>
+      <c r="K4" s="4"/>
+      <c r="L4" s="4"/>
+    </row>
+    <row r="5" ht="50" customHeight="1" spans="1:12">
+      <c r="A5" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C5" s="4"/>
+      <c r="D5" s="4"/>
+      <c r="E5" s="4"/>
+      <c r="F5" s="4"/>
+      <c r="G5" s="4"/>
+      <c r="H5" s="4"/>
+      <c r="I5" s="4"/>
+      <c r="J5" s="4"/>
+      <c r="K5" s="4"/>
+      <c r="L5" s="4"/>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
